--- a/deep_seq_batch/figures/SBharadwaj_20240318_Sample_3_6_full_speed_coherence.xlsx
+++ b/deep_seq_batch/figures/SBharadwaj_20240318_Sample_3_6_full_speed_coherence.xlsx
@@ -657,37 +657,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6347165375442828</v>
+        <v>0.6347165383019689</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8103448293275304</v>
+        <v>0.810344834294584</v>
       </c>
       <c r="D3" t="n">
         <v>0.8833671510219574</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6929392388888768</v>
+        <v>0.6929392445655096</v>
       </c>
       <c r="F3" t="n">
         <v>0.3586206912994385</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6650246328541211</v>
+        <v>0.6650246275322778</v>
       </c>
       <c r="H3" t="n">
         <v>0.9310344874858856</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6436781618330214</v>
+        <v>0.6436781684557596</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6245210729539394</v>
+        <v>0.6245210725400183</v>
       </c>
       <c r="K3" t="n">
         <v>0.7643678188323975</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9377628263176941</v>
+        <v>0.9377628259542512</v>
       </c>
       <c r="M3" t="n">
         <v>0.9051724225282669</v>
@@ -696,19 +696,19 @@
         <v>0.7586206793785095</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3103448189795017</v>
+        <v>0.3103448239465554</v>
       </c>
       <c r="P3" t="n">
-        <v>0.6551724076271057</v>
+        <v>0.6551723877588908</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9999999403953552</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>0.7506631245979896</v>
+        <v>0.7506631429378803</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9252873579661052</v>
+        <v>0.9252873619397481</v>
       </c>
       <c r="T3" t="n">
         <v>0.5517241358757019</v>

--- a/deep_seq_batch/figures/SBharadwaj_20240318_Sample_3_6_full_speed_coherence.xlsx
+++ b/deep_seq_batch/figures/SBharadwaj_20240318_Sample_3_6_full_speed_coherence.xlsx
@@ -657,37 +657,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6347165383019689</v>
+        <v>0.6347165375442828</v>
       </c>
       <c r="C3" t="n">
-        <v>0.810344834294584</v>
+        <v>0.8103448293275304</v>
       </c>
       <c r="D3" t="n">
         <v>0.8833671510219574</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6929392445655096</v>
+        <v>0.6929392388888768</v>
       </c>
       <c r="F3" t="n">
         <v>0.3586206912994385</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6650246275322778</v>
+        <v>0.6650246328541211</v>
       </c>
       <c r="H3" t="n">
         <v>0.9310344874858856</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6436781684557596</v>
+        <v>0.6436781618330214</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6245210725400183</v>
+        <v>0.6245210729539394</v>
       </c>
       <c r="K3" t="n">
         <v>0.7643678188323975</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9377628259542512</v>
+        <v>0.9377628263176941</v>
       </c>
       <c r="M3" t="n">
         <v>0.9051724225282669</v>
@@ -696,19 +696,19 @@
         <v>0.7586206793785095</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3103448239465554</v>
+        <v>0.3103448189795017</v>
       </c>
       <c r="P3" t="n">
-        <v>0.6551723877588908</v>
+        <v>0.6551724076271057</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>0.9999999403953552</v>
       </c>
       <c r="R3" t="n">
-        <v>0.7506631429378803</v>
+        <v>0.7506631245979896</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9252873619397481</v>
+        <v>0.9252873579661052</v>
       </c>
       <c r="T3" t="n">
         <v>0.5517241358757019</v>

--- a/deep_seq_batch/figures/SBharadwaj_20240318_Sample_3_6_full_speed_coherence.xlsx
+++ b/deep_seq_batch/figures/SBharadwaj_20240318_Sample_3_6_full_speed_coherence.xlsx
@@ -657,37 +657,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6347165375442828</v>
+        <v>0.6347165383019689</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8103448293275304</v>
+        <v>0.810344834294584</v>
       </c>
       <c r="D3" t="n">
         <v>0.8833671510219574</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6929392388888768</v>
+        <v>0.6929392445655096</v>
       </c>
       <c r="F3" t="n">
         <v>0.3586206912994385</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6650246328541211</v>
+        <v>0.6650246275322778</v>
       </c>
       <c r="H3" t="n">
         <v>0.9310344874858856</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6436781618330214</v>
+        <v>0.6436781684557596</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6245210729539394</v>
+        <v>0.6245210725400183</v>
       </c>
       <c r="K3" t="n">
         <v>0.7643678188323975</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9377628263176941</v>
+        <v>0.9377628259542512</v>
       </c>
       <c r="M3" t="n">
         <v>0.9051724225282669</v>
@@ -696,19 +696,19 @@
         <v>0.7586206793785095</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3103448189795017</v>
+        <v>0.3103448214630286</v>
       </c>
       <c r="P3" t="n">
-        <v>0.6551724076271057</v>
+        <v>0.6551723877588908</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9999999403953552</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>0.7506631245979896</v>
+        <v>0.7506631337679349</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9252873579661052</v>
+        <v>0.9252873619397481</v>
       </c>
       <c r="T3" t="n">
         <v>0.5517241358757019</v>

--- a/deep_seq_batch/figures/SBharadwaj_20240318_Sample_3_6_full_speed_coherence.xlsx
+++ b/deep_seq_batch/figures/SBharadwaj_20240318_Sample_3_6_full_speed_coherence.xlsx
@@ -657,37 +657,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6347165383019689</v>
+        <v>0.634716538554531</v>
       </c>
       <c r="C3" t="n">
-        <v>0.810344834294584</v>
+        <v>0.8103448293275304</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8833671510219574</v>
+        <v>0.8833671527750352</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6929392445655096</v>
+        <v>0.6929392388888768</v>
       </c>
       <c r="F3" t="n">
         <v>0.3586206912994385</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6650246275322778</v>
+        <v>0.6650246328541211</v>
       </c>
       <c r="H3" t="n">
         <v>0.9310344874858856</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6436781684557596</v>
+        <v>0.6436781618330214</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6245210725400183</v>
+        <v>0.6245210795766778</v>
       </c>
       <c r="K3" t="n">
         <v>0.7643678188323975</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9377628259542512</v>
+        <v>0.9377628263176941</v>
       </c>
       <c r="M3" t="n">
         <v>0.9051724225282669</v>
@@ -696,19 +696,19 @@
         <v>0.7586206793785095</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3103448214630286</v>
+        <v>0.310344831397136</v>
       </c>
       <c r="P3" t="n">
-        <v>0.6551723877588908</v>
+        <v>0.6551724076271057</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>0.9999999403953552</v>
       </c>
       <c r="R3" t="n">
-        <v>0.7506631337679349</v>
+        <v>0.7506631200130169</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9252873619397481</v>
+        <v>0.9252873579661052</v>
       </c>
       <c r="T3" t="n">
         <v>0.5517241358757019</v>

--- a/deep_seq_batch/figures/SBharadwaj_20240318_Sample_3_6_full_speed_coherence.xlsx
+++ b/deep_seq_batch/figures/SBharadwaj_20240318_Sample_3_6_full_speed_coherence.xlsx
@@ -572,82 +572,82 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.005809090565890074</v>
+        <v>0.5148056745529175</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001806656131520867</v>
+        <v>0.6629398465156555</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0005321101052686572</v>
+        <v>0.7136476039886475</v>
       </c>
       <c r="E2" t="n">
-        <v>0.003623852971941233</v>
+        <v>0.68666672706604</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00488372053951025</v>
+        <v>0.883446216583252</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0008222222095355392</v>
+        <v>0.5312259197235107</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002029850846156478</v>
+        <v>1.002756118774414</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002277227817103267</v>
+        <v>0.7355519533157349</v>
       </c>
       <c r="J2" t="n">
-        <v>0.001754385884851217</v>
+        <v>1.061414480209351</v>
       </c>
       <c r="K2" t="n">
-        <v>0.003830645000562072</v>
+        <v>0.5461071729660034</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003199999919161201</v>
+        <v>0.6819004416465759</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0005529953632503748</v>
+        <v>0.7338073253631592</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0007804877823218703</v>
+        <v>0.7837736010551453</v>
       </c>
       <c r="O2" t="n">
-        <v>0.007045454811304808</v>
+        <v>1.66850745677948</v>
       </c>
       <c r="P2" t="n">
-        <v>0.002283464418724179</v>
+        <v>0.4972121119499207</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0004918032791465521</v>
+        <v>1.026025652885437</v>
       </c>
       <c r="R2" t="n">
-        <v>0.004715446848422289</v>
+        <v>1.464407920837402</v>
       </c>
       <c r="S2" t="n">
-        <v>0.005641025491058826</v>
+        <v>0.4847008585929871</v>
       </c>
       <c r="T2" t="n">
-        <v>0.001166666625067592</v>
+        <v>0.8216882944107056</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0004081632650922984</v>
+        <v>1.870259642601013</v>
       </c>
       <c r="V2" t="n">
-        <v>0.01184615399688482</v>
+        <v>0.6150000095367432</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0002127659536199644</v>
+        <v>0.9100000262260437</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0005714285653084517</v>
+        <v>1.222249984741211</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0006249999860301614</v>
+        <v>0.5784375071525574</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>0.5848386883735657</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>0.7611110806465149</v>
       </c>
     </row>
     <row r="3">
@@ -657,77 +657,83 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.634716538554531</v>
+        <v>0.7166926632897463</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8103448293275304</v>
+        <v>0.5835545227379727</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8833671527750352</v>
+        <v>0.6203486396075281</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6929392388888768</v>
+        <v>0.7733893487386888</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3586206912994385</v>
+        <v>0.8573371648057321</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6650246328541211</v>
+        <v>0.7139464145470835</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9310344874858856</v>
+        <v>0.8430466332086702</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6436781618330214</v>
+        <v>0.5398031697886718</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6245210795766778</v>
+        <v>0.8253312004043868</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7643678188323975</v>
+        <v>0.6001182696145926</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9377628263176941</v>
+        <v>0.7495647331033897</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9051724225282669</v>
+        <v>0.5150702552647766</v>
       </c>
       <c r="N3" t="n">
-        <v>0.7586206793785095</v>
+        <v>0.5647471659588363</v>
       </c>
       <c r="O3" t="n">
-        <v>0.310344831397136</v>
+        <v>0.8766100233170524</v>
       </c>
       <c r="P3" t="n">
-        <v>0.6551724076271057</v>
+        <v>0.6335157376008503</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9999999403953552</v>
+        <v>0.7872004396258256</v>
       </c>
       <c r="R3" t="n">
-        <v>0.7506631200130169</v>
+        <v>0.6585794068676861</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9252873579661052</v>
+        <v>0.7107440870032351</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5517241358757019</v>
-      </c>
-      <c r="U3" t="inlineStr"/>
+        <v>0.6519794739879571</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.9299895716952039</v>
+      </c>
       <c r="V3" t="n">
-        <v>0.636015322473314</v>
+        <v>0.7468285952295576</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>0.5313138990326131</v>
       </c>
       <c r="X3" t="n">
-        <v>0.9310345053672791</v>
+        <v>0.5624229532666505</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.9724138021469116</v>
-      </c>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
+        <v>0.6652234578505158</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.6044943625888517</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.5913467510706849</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
